--- a/plan/0.시스템/[13신창섭150703]플레이어 스킬.xlsx
+++ b/plan/0.시스템/[13신창섭150703]플레이어 스킬.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/leinster/Google 드라이브/졸업작품/졸업작품/0.시스템/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/leinster/Desktop/gamebusdriver/plan/0.시스템/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="97">
   <si>
     <t>1. 기획의도</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -158,10 +158,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>스킬의 타입이 어떻게 되는가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>스킬을 습득하는데 얼마의 자원이 소모되는가</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -299,6 +295,110 @@
   </si>
   <si>
     <t>스킬의 강도 설정(약한, 강한, 스킬 공격 등)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isSummonObject</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>objectType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>objectSizeX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오브젝트트의 로컬좌표 기준 X축의 크기. 중심을 중심으로 -, + 방향으로 추가되는 양만큼 설정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>objectSizeY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오브젝트트의 로컬좌표 기준 Y축의 크기. 중심을 중심으로 -, + 방향으로 추가되는 양만큼 설정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isBuff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>특정 버프를 거는 버프타입의 스킬인가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4. 특정 버프를 거능 버프 타입의 스킬 설정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>특정 버프를 거는 버프타입의 스킬인 경우, 거는 버프의 번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬의 타입이 어떻게 되는가(0 이동 기술 / 1 근거리 / 2 원거리 투사체 발사 / 3원거리 즉시 발동 / 4 특정 버프를 거는 타입)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬이 점프중 사용 가능한가?(0) / 혹은 점프중에만 사용 가능한가(1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬이 달리는중 사용 가능한가?(0) / 혹은 달리는중에만 사용 가능한가(1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오브젝트를 사용하는 타입의 여부(0 예 / 1 아니오)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오브젝트의 모양이 어떤 타입이지?(0 사각형 / 1 원형)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>move</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬 사용 중 이동이 가능한가?(0 이동이 불가능하다 / 1 이동이 가능하다)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>casting</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬을 사용하는데 시전 시간이 있는 스킬인가?(0 없음 / 1~ 걸리는 시간, 실수)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isSuper</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>slowStart</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>slowEnd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스페셜 스킬인 경우, 슬로우 모션이 시작되는 애니메이션의 프레임</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스페셜 스킬인 경우, 슬로우 모션이 끝나는 애니메이션의 프레임</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>직업의 스페셜 스킬인가? (0 아니오 / 1예)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -660,16 +760,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:AC64"/>
+  <dimension ref="B2:AC72"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="89" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="83" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.42578125" customWidth="1"/>
     <col min="2" max="2" width="2.28515625" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" customWidth="1"/>
     <col min="26" max="26" width="9.5703125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -732,7 +833,7 @@
         <v>24</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M10" s="1" t="s">
         <v>13</v>
@@ -777,13 +878,13 @@
         <v>29</v>
       </c>
       <c r="AA10" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AB10" s="1" t="s">
         <v>30</v>
       </c>
       <c r="AC10" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="2:29" x14ac:dyDescent="0.25">
@@ -815,7 +916,7 @@
         <v>8</v>
       </c>
       <c r="D15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="2:29" x14ac:dyDescent="0.25">
@@ -823,366 +924,419 @@
         <v>12</v>
       </c>
       <c r="D16" t="s">
-        <v>34</v>
+        <v>82</v>
       </c>
     </row>
     <row r="17" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C17" s="1" t="s">
-        <v>11</v>
+        <v>91</v>
       </c>
       <c r="D17" t="s">
-        <v>36</v>
+        <v>96</v>
       </c>
     </row>
     <row r="18" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C18" s="1" t="s">
-        <v>9</v>
+        <v>92</v>
       </c>
       <c r="D18" t="s">
-        <v>37</v>
+        <v>94</v>
       </c>
     </row>
     <row r="19" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C19" s="1" t="s">
-        <v>23</v>
+        <v>93</v>
       </c>
       <c r="D19" t="s">
-        <v>38</v>
+        <v>95</v>
       </c>
     </row>
     <row r="20" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C20" s="1" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="D20" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C21" s="1" t="s">
-        <v>56</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>57</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C22" s="1" t="s">
-        <v>13</v>
+        <v>89</v>
       </c>
       <c r="D22" t="s">
-        <v>40</v>
+        <v>90</v>
       </c>
     </row>
     <row r="23" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C23" s="1" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="D23" t="s">
-        <v>40</v>
+        <v>83</v>
       </c>
     </row>
     <row r="24" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C24" s="1" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D24" t="s">
-        <v>41</v>
+        <v>84</v>
       </c>
     </row>
     <row r="25" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C25" s="1" t="s">
-        <v>16</v>
+        <v>87</v>
       </c>
       <c r="D25" t="s">
-        <v>42</v>
+        <v>88</v>
       </c>
     </row>
     <row r="26" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C26" s="1" t="s">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="D26" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
     </row>
     <row r="27" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C27" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D27" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C28" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D28" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="29" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C29" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D29" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="30" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C30" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D30" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="31" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C31" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D31" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="32" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C32" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D32" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="33" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C33" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D33" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="34" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C34" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D34" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="35" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C35" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D35" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="36" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C36" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D36" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="37" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C37" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D37" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="38" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C38" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D38" t="s">
         <v>70</v>
       </c>
-      <c r="D32" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C33" s="1" t="s">
+    </row>
+    <row r="39" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C39" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D39" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="40" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C40" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D40" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="41" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C41" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D41" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C34" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D34" t="s">
+    <row r="42" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C42" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D42" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C35" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D35" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C36" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D36" t="s">
+    <row r="43" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C43" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D43" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="44" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C44" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D44" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C37" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D37" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C38" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D38" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C39" s="1" t="s">
+    <row r="45" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C45" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D45" t="s">
         <v>58</v>
       </c>
-      <c r="D39" t="s">
+    </row>
+    <row r="46" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C46" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D46" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="47" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C47" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D47" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C50" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C40" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="D40" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C41" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D41" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B43" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C44" t="s">
+    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C51" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C53" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D53" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C45" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C47" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D47" t="s">
+    <row r="54" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C54" s="1" t="s">
         <v>61</v>
-      </c>
-    </row>
-    <row r="48" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C48" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D48" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="49" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C49" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D49" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="50" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C50" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D50" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="51" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C51" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D51" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="52" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C52" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D52" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="53" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C53" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D53" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="54" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C54" s="1" t="s">
-        <v>56</v>
       </c>
       <c r="D54" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="55" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C55" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D55" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="56" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C56" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D56" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="57" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C57" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D57" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="58" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C58" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D58" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="59" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C59" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D59" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="60" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C60" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D60" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="61" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C61" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D55" t="s">
+      <c r="D61" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="62" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C62" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D62" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="63" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C63" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D63" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="56" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C56" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D56" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="57" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C57" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D57" t="s">
+    <row r="64" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C64" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D64" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="58" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C58" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D58" t="s">
+    <row r="65" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C65" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D65" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="59" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C59" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D59" t="s">
+    <row r="66" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C66" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D66" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="60" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C60" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D60" t="s">
+    <row r="67" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C67" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D67" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="61" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C61" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D61" t="s">
+    <row r="68" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C68" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D68" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="62" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C62" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D62" t="s">
+    <row r="69" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C69" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D69" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="63" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C63" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D63" t="s">
+    <row r="70" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C70" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D70" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="64" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C64" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D64" t="s">
-        <v>48</v>
+    <row r="72" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B72" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
